--- a/docs/Результаты_опроса.xlsx
+++ b/docs/Результаты_опроса.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rasp_sistem\auto_schedule_backend\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chipz\Desktop\auto_schedule_backend\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1783,9 +1783,6 @@
     <t>Дней в неделю учатся</t>
   </si>
   <si>
-    <t>колво</t>
-  </si>
-  <si>
     <t>Cреднее кол-во пар в день</t>
   </si>
   <si>
@@ -1808,6 +1805,9 @@
   </si>
   <si>
     <t>Хотят корпусов посещать</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1817,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1832,6 +1832,14 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1841,7 +1849,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1849,11 +1857,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1861,6 +1884,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8470,7 +8500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL2" sqref="AL2"/>
+      <selection pane="bottomLeft" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8478,7 +8508,7 @@
     <col min="1" max="25" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8537,49 +8567,52 @@
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Y1" t="s">
         <v>581</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="AG1" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="AE1" t="s">
-        <v>584</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>583</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>586</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>588</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="AK1" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="AL1" t="s">
-        <v>591</v>
+      <c r="AL1" s="8" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
@@ -8641,16 +8674,16 @@
         <v>27</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -8659,36 +8692,36 @@
         <f>COUNTIF(D2:D156,1)</f>
         <v>10</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="9">
         <v>6</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="9">
         <f>COUNTIF(F$2:F$156,6)</f>
         <v>83</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="9">
         <f>COUNTIF(G$2:G$156,6)</f>
         <v>7</v>
       </c>
-      <c r="AE2">
-        <v>2</v>
-      </c>
-      <c r="AF2">
+      <c r="AE2" s="9">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="9">
         <f>COUNTIF(H$2:H$156,2)</f>
         <v>23</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="9">
         <f>COUNTIF(I$2:I$156,2)</f>
         <v>45</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AK2">
+      <c r="AJ2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="9">
         <f>COUNTIF(N$2:N$156,1)</f>
         <v>18</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="9">
         <f>COUNTIF(O$2:O$156,1)</f>
         <v>89</v>
       </c>
@@ -8752,16 +8785,16 @@
         <v>35</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="X3">
         <v>2</v>
@@ -8770,36 +8803,36 @@
         <f>COUNTIF(D2:D156,2)</f>
         <v>20</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="9">
         <v>5</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="9">
         <f>COUNTIF(F$2:F$156,5)</f>
         <v>59</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="9">
         <f>COUNTIF(G$2:G$156,5)</f>
         <v>90</v>
       </c>
-      <c r="AE3">
-        <v>3</v>
-      </c>
-      <c r="AF3">
+      <c r="AE3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="9">
         <f>COUNTIF(H$2:H$156,3)</f>
         <v>98</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="9">
         <f>COUNTIF(I$2:I$156,3)</f>
         <v>90</v>
       </c>
-      <c r="AJ3">
-        <v>2</v>
-      </c>
-      <c r="AK3">
+      <c r="AJ3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="9">
         <f>COUNTIF(N$2:N$156,2)</f>
         <v>71</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="9">
         <f>COUNTIF(O$2:O$156,2)</f>
         <v>57</v>
       </c>
@@ -8863,16 +8896,16 @@
         <v>42</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="X4">
         <v>3</v>
@@ -8881,36 +8914,36 @@
         <f>COUNTIF(D2:D156,3)</f>
         <v>56</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="9">
         <v>4</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="9">
         <f>COUNTIF(F$2:F$156,4)</f>
         <v>9</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="9">
         <f>COUNTIF(G$2:G$156,4)</f>
         <v>43</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="9">
         <v>4</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="9">
         <f>COUNTIF(H$2:H$156,4)</f>
         <v>33</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="9">
         <f>COUNTIF(I$2:I$156,4)</f>
         <v>17</v>
       </c>
-      <c r="AJ4">
-        <v>3</v>
-      </c>
-      <c r="AK4">
+      <c r="AJ4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="9">
         <f>COUNTIF(N$2:N$156,3)</f>
         <v>60</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="9">
         <f>COUNTIF(O$2:O$156,3)</f>
         <v>7</v>
       </c>
@@ -8974,16 +9007,16 @@
         <v>49</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="X5">
         <v>4</v>
@@ -8992,14 +9025,14 @@
         <f>COUNTIF(D2:D156,4)</f>
         <v>48</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="9">
         <v>4</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="9">
         <f>COUNTIF(N$2:N$156,4)</f>
         <v>5</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="9">
         <f>COUNTIF(O$2:O$156,4)</f>
         <v>2</v>
       </c>
@@ -10659,7 +10692,7 @@
         <v>179</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>180</v>
@@ -17625,6 +17658,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>